--- a/data/trans_orig/MCS12_SP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud mental (SF12)</t>
+          <t>Puntuación media del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,36</t>
+          <t>55,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,61</t>
+          <t>52,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>54,03</t>
+          <t>54,11</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,13; 56,09</t>
+          <t>54,12; 56,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,02; 53,88</t>
+          <t>51,01; 53,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,06; 54,82</t>
+          <t>53,18; 54,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,97</t>
+          <t>53,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,33</t>
+          <t>52,49</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>53,09</t>
+          <t>53,14</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,0; 54,79</t>
+          <t>52,89; 54,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,23; 53,11</t>
+          <t>51,42; 53,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,41; 53,66</t>
+          <t>52,52; 53,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,9</t>
+          <t>52,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,44</t>
+          <t>52,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>52,66</t>
+          <t>52,71</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,59</t>
+          <t>52,23; 53,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,84; 52,96</t>
+          <t>51,87; 52,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,2; 53,11</t>
+          <t>52,24; 53,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,44</t>
+          <t>53,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,86</t>
+          <t>51,18</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,64</t>
+          <t>52,2</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,71; 53,19</t>
+          <t>51,96; 54,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,17; 51,44</t>
+          <t>50,49; 52,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,16; 52,2</t>
+          <t>51,45; 53,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>51,56</t>
+          <t>51,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>49,45</t>
+          <t>49,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>50,5</t>
+          <t>50,58</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,91; 52,27</t>
+          <t>50,99; 52,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,79; 50,07</t>
+          <t>48,86; 50,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,0; 50,96</t>
+          <t>50,09; 51,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50,73</t>
+          <t>50,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>50,35</t>
+          <t>51,15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,54</t>
+          <t>52,19</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51,08</t>
+          <t>51,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,08</t>
+          <t>49,75</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,79</t>
+          <t>47,78</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,16</t>
+          <t>48,68</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,0</t>
+          <t>48,04</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>50,35</t>
+          <t>50,21</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>48,32</t>
+          <t>49,35</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>49,62</t>
+          <t>50,33</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>49,25</t>
+          <t>49,4</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,88; 51,54</t>
+          <t>49,7; 51,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,46; 51,16</t>
+          <t>50,0; 52,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,84; 52,24</t>
+          <t>51,21; 52,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,48; 51,6</t>
+          <t>50,94; 52,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,16; 50,86</t>
+          <t>48,64; 50,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,55</t>
+          <t>46,68; 49,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,25; 49,01</t>
+          <t>47,54; 49,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,53; 48,67</t>
+          <t>45,61; 50,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,79; 50,92</t>
+          <t>49,48; 50,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,92</t>
+          <t>48,52; 50,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,97; 50,21</t>
+          <t>49,59; 51,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,21; 49,79</t>
+          <t>46,83; 50,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>52,56</t>
+          <t>50,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>52,05</t>
+          <t>49,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>52,44</t>
+          <t>50,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>50,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>50,77</t>
+          <t>50,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,22</t>
+          <t>45,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>50,61</t>
+          <t>47,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,47</t>
+          <t>47,37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,65</t>
+          <t>50,51</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,61</t>
+          <t>47,25</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51,51</t>
+          <t>48,85</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>51,47</t>
+          <t>48,64</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>49,22; 51,88</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>47,89; 50,7</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49,45; 51,72</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>49,59; 51,43</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>49,06; 51,58</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44,61; 47,08</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>46,23; 49,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>46,57; 48,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>49,59; 51,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>46,16; 48,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>47,88; 49,81</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>48,05; 49,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>52,56</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>52,05</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>52,44</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>52,82</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50,77</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>49,22</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50,61</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>50,46</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51,65</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>50,61</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51,51</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>51,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>52,29; 52,81</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>51,7; 52,3</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>52,19; 52,7</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>52,28; 52,92</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>52,47; 53,36</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>50,46; 51,07</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>48,86; 49,56</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>50,27; 50,95</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>49,88; 50,84</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49,28; 50,95</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>51,46; 51,85</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>50,39; 50,83</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>51,28; 51,71</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>51,13; 51,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51,02; 52,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/MCS12_SP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,69; 54,65</t>
+          <t>53,66; 54,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,49; 54,56</t>
+          <t>53,54; 54,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,85; 54,96</t>
+          <t>53,88; 54,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,12; 56,04</t>
+          <t>54,18; 56,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,88; 53,13</t>
+          <t>51,98; 53,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,71; 53,23</t>
+          <t>51,82; 53,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,78; 54,02</t>
+          <t>52,76; 54,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,01; 53,8</t>
+          <t>50,92; 53,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,0; 53,79</t>
+          <t>53,01; 53,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,86; 53,77</t>
+          <t>52,81; 53,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,58; 54,37</t>
+          <t>53,53; 54,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,18; 54,88</t>
+          <t>53,21; 54,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,07; 53,95</t>
+          <t>53,09; 53,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,61; 53,58</t>
+          <t>52,5; 53,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,28; 53,39</t>
+          <t>52,29; 53,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,89; 54,79</t>
+          <t>52,88; 54,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,6; 51,9</t>
+          <t>50,53; 51,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,67; 52,06</t>
+          <t>50,6; 51,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,07; 53,21</t>
+          <t>52,05; 53,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,42; 53,18</t>
+          <t>51,63; 53,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,07; 52,86</t>
+          <t>52,09; 52,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,84; 52,68</t>
+          <t>51,82; 52,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,14</t>
+          <t>52,38; 53,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,52; 53,68</t>
+          <t>52,5; 53,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,85</t>
+          <t>51,71; 52,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,36; 52,56</t>
+          <t>51,3; 52,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,07; 53,17</t>
+          <t>52,1; 53,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,23; 53,65</t>
+          <t>52,22; 53,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,39; 51,56</t>
+          <t>50,36; 51,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,69; 50,22</t>
+          <t>48,57; 50,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,3; 52,56</t>
+          <t>51,24; 52,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,87; 52,98</t>
+          <t>51,93; 52,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,21; 52,01</t>
+          <t>51,19; 52,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,15; 51,19</t>
+          <t>50,16; 51,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,89; 52,68</t>
+          <t>51,91; 52,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,24; 53,17</t>
+          <t>52,24; 53,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,74; 53,04</t>
+          <t>51,74; 53,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,4</t>
+          <t>50,97; 52,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,88; 52,23</t>
+          <t>50,86; 52,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,96; 54,24</t>
+          <t>51,93; 54,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,08; 50,6</t>
+          <t>49,12; 50,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,64; 49,42</t>
+          <t>47,63; 49,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 50,84</t>
+          <t>49,44; 50,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,49; 52,36</t>
+          <t>50,45; 52,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 51,61</t>
+          <t>50,58; 51,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,57; 50,7</t>
+          <t>49,58; 50,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,29; 51,37</t>
+          <t>50,32; 51,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,45; 53,4</t>
+          <t>51,5; 53,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,74; 52,28</t>
+          <t>50,66; 52,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,84</t>
+          <t>50,06; 51,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,26; 52,79</t>
+          <t>51,16; 52,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,99; 52,35</t>
+          <t>50,87; 52,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,88; 50,71</t>
+          <t>48,82; 50,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,45; 48,62</t>
+          <t>46,49; 48,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,59; 49,57</t>
+          <t>47,56; 49,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,86; 50,12</t>
+          <t>48,83; 50,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,2</t>
+          <t>50,01; 51,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,64; 49,9</t>
+          <t>48,63; 49,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49,66; 50,99</t>
+          <t>49,63; 50,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,09; 51,02</t>
+          <t>50,09; 51,07</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,7; 51,71</t>
+          <t>49,74; 51,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,0; 52,22</t>
+          <t>50,02; 52,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>51,21; 52,96</t>
+          <t>51,17; 52,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,94; 52,32</t>
+          <t>50,96; 52,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,64; 50,7</t>
+          <t>48,79; 50,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,68; 49,01</t>
+          <t>46,62; 48,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,54; 49,85</t>
+          <t>47,48; 49,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,61; 50,12</t>
+          <t>45,92; 50,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,48; 50,84</t>
+          <t>49,5; 50,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48,52; 50,12</t>
+          <t>48,55; 50,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>49,59; 51,01</t>
+          <t>49,6; 51,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>46,83; 50,93</t>
+          <t>46,99; 50,9</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>49,22; 51,88</t>
+          <t>49,33; 51,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,89; 50,7</t>
+          <t>47,88; 50,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,45; 51,72</t>
+          <t>49,44; 51,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,59; 51,43</t>
+          <t>49,59; 51,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,06; 51,58</t>
+          <t>49,11; 51,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,61; 47,08</t>
+          <t>44,6; 47,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,23; 49,06</t>
+          <t>46,21; 49,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,57; 48,11</t>
+          <t>46,58; 48,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,59; 51,34</t>
+          <t>49,61; 51,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>46,16; 48,1</t>
+          <t>46,32; 48,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,88; 49,81</t>
+          <t>47,86; 49,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,05; 49,2</t>
+          <t>48,07; 49,25</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,31; 52,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,3</t>
+          <t>51,75; 52,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,7</t>
+          <t>52,17; 52,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>52,47; 53,36</t>
+          <t>52,48; 53,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1734,32 +1734,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,27; 50,95</t>
+          <t>50,31; 50,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,28; 50,95</t>
+          <t>49,39; 50,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,45; 51,86</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50,39; 50,83</t>
+          <t>50,4; 50,84</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,71</t>
+          <t>51,3; 51,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>51,02; 52,01</t>
+          <t>50,98; 51,99</t>
         </is>
       </c>
     </row>
